--- a/df_result_returning.xlsx
+++ b/df_result_returning.xlsx
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -588,28 +588,28 @@
         <v>17</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M3">
         <v>3</v>
@@ -624,7 +624,7 @@
         <v>7</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -641,10 +641,10 @@
         <v>7</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I4">
         <v>6</v>
@@ -653,10 +653,10 @@
         <v>6</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -665,16 +665,16 @@
         <v>4</v>
       </c>
       <c r="O4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P4">
+        <v>8</v>
+      </c>
+      <c r="Q4">
         <v>6</v>
       </c>
-      <c r="Q4">
-        <v>4</v>
-      </c>
       <c r="R4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -688,37 +688,37 @@
         <v>42</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I5">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="J5">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="K5">
-        <v>273</v>
+        <v>4</v>
       </c>
       <c r="L5">
-        <v>253</v>
+        <v>8</v>
       </c>
       <c r="M5">
-        <v>418</v>
+        <v>4</v>
       </c>
       <c r="N5">
-        <v>556</v>
+        <v>11</v>
       </c>
       <c r="O5">
-        <v>850</v>
+        <v>12</v>
       </c>
       <c r="P5">
-        <v>1190</v>
+        <v>16</v>
       </c>
       <c r="Q5">
-        <v>663</v>
+        <v>16</v>
       </c>
       <c r="R5">
-        <v>261</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -729,37 +729,37 @@
         <v>20</v>
       </c>
       <c r="H6">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I6">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="J6">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="K6">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="L6">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="M6">
-        <v>212</v>
+        <v>7</v>
       </c>
       <c r="N6">
-        <v>288</v>
+        <v>18</v>
       </c>
       <c r="O6">
-        <v>432</v>
+        <v>15</v>
       </c>
       <c r="P6">
-        <v>601</v>
+        <v>20</v>
       </c>
       <c r="Q6">
-        <v>344</v>
+        <v>24</v>
       </c>
       <c r="R6">
-        <v>131</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -770,34 +770,34 @@
         <v>21</v>
       </c>
       <c r="I7">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J7">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L7">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M7">
         <v>5</v>
       </c>
       <c r="N7">
+        <v>15</v>
+      </c>
+      <c r="O7">
         <v>11</v>
       </c>
-      <c r="O7">
-        <v>9</v>
-      </c>
       <c r="P7">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="R7">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -808,31 +808,31 @@
         <v>22</v>
       </c>
       <c r="J8">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="K8">
-        <v>237</v>
+        <v>27</v>
       </c>
       <c r="L8">
-        <v>228</v>
+        <v>33</v>
       </c>
       <c r="M8">
-        <v>365</v>
+        <v>28</v>
       </c>
       <c r="N8">
-        <v>472</v>
+        <v>21</v>
       </c>
       <c r="O8">
-        <v>710</v>
+        <v>15</v>
       </c>
       <c r="P8">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Q8">
-        <v>561</v>
+        <v>28</v>
       </c>
       <c r="R8">
-        <v>216</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -843,28 +843,28 @@
         <v>23</v>
       </c>
       <c r="K9">
-        <v>1143</v>
+        <v>27</v>
       </c>
       <c r="L9">
-        <v>1041</v>
+        <v>22</v>
       </c>
       <c r="M9">
-        <v>1737</v>
+        <v>19</v>
       </c>
       <c r="N9">
-        <v>2297</v>
+        <v>29</v>
       </c>
       <c r="O9">
-        <v>3521</v>
+        <v>30</v>
       </c>
       <c r="P9">
-        <v>4917</v>
+        <v>30</v>
       </c>
       <c r="Q9">
-        <v>2719</v>
+        <v>31</v>
       </c>
       <c r="R9">
-        <v>1083</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -875,25 +875,25 @@
         <v>24</v>
       </c>
       <c r="L10">
-        <v>1880</v>
+        <v>55</v>
       </c>
       <c r="M10">
-        <v>3123</v>
+        <v>31</v>
       </c>
       <c r="N10">
-        <v>4112</v>
+        <v>20</v>
       </c>
       <c r="O10">
-        <v>6312</v>
+        <v>15</v>
       </c>
       <c r="P10">
-        <v>8842</v>
+        <v>42</v>
       </c>
       <c r="Q10">
-        <v>4880</v>
+        <v>44</v>
       </c>
       <c r="R10">
-        <v>1939</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -904,22 +904,22 @@
         <v>25</v>
       </c>
       <c r="M11">
-        <v>2857</v>
+        <v>45</v>
       </c>
       <c r="N11">
-        <v>3760</v>
+        <v>42</v>
       </c>
       <c r="O11">
-        <v>5764</v>
+        <v>33</v>
       </c>
       <c r="P11">
-        <v>8059</v>
+        <v>37</v>
       </c>
       <c r="Q11">
-        <v>4458</v>
+        <v>46</v>
       </c>
       <c r="R11">
-        <v>1768</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -930,19 +930,19 @@
         <v>26</v>
       </c>
       <c r="N12">
-        <v>6315</v>
+        <v>47</v>
       </c>
       <c r="O12">
-        <v>9690</v>
+        <v>40</v>
       </c>
       <c r="P12">
-        <v>13548</v>
+        <v>37</v>
       </c>
       <c r="Q12">
-        <v>7478</v>
+        <v>39</v>
       </c>
       <c r="R12">
-        <v>2975</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -953,16 +953,16 @@
         <v>27</v>
       </c>
       <c r="O13">
-        <v>12794</v>
+        <v>85</v>
       </c>
       <c r="P13">
-        <v>17885</v>
+        <v>78</v>
       </c>
       <c r="Q13">
-        <v>9881</v>
+        <v>78</v>
       </c>
       <c r="R13">
-        <v>3922</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -990,7 +990,7 @@
         <v>29</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15">
         <v>1</v>
@@ -1004,7 +1004,7 @@
         <v>30</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2">
